--- a/elsa/sprint3/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/sprint3/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="164">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -498,6 +498,21 @@
   </si>
   <si>
     <t xml:space="preserve">And, finally finished everything on Monday night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done in sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touched up a lil bit in sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done in sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planning to finish before sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe will do in sprint 4</t>
   </si>
   <si>
     <t xml:space="preserve">--&gt; Add tasks to complete each feature for this sprint</t>
@@ -969,7 +984,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1009,10 +1024,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0822345810160595"/>
-          <c:y val="0.161975370696155"/>
-          <c:w val="0.88420921077298"/>
-          <c:h val="0.635586830862026"/>
+          <c:x val="0.0822397200349956"/>
+          <c:y val="0.161995727032801"/>
+          <c:w val="0.88413948256468"/>
+          <c:h val="0.635541033052658"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1101,11 +1116,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14448316"/>
-        <c:axId val="35832246"/>
+        <c:axId val="81116139"/>
+        <c:axId val="29279189"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14448316"/>
+        <c:axId val="81116139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1163,12 +1178,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35832246"/>
+        <c:crossAx val="29279189"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35832246"/>
+        <c:axId val="29279189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1234,7 +1249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14448316"/>
+        <c:crossAx val="81116139"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1261,7 +1276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1369,11 +1384,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="64188524"/>
-        <c:axId val="66746464"/>
+        <c:axId val="5804272"/>
+        <c:axId val="22638418"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64188524"/>
+        <c:axId val="5804272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1444,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66746464"/>
+        <c:crossAx val="22638418"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66746464"/>
+        <c:axId val="22638418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64188524"/>
+        <c:crossAx val="5804272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1528,7 +1543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1636,11 +1651,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="45861015"/>
-        <c:axId val="17021155"/>
+        <c:axId val="265971"/>
+        <c:axId val="20462272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45861015"/>
+        <c:axId val="265971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,14 +1711,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17021155"/>
+        <c:crossAx val="20462272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17021155"/>
+        <c:axId val="20462272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45861015"/>
+        <c:crossAx val="265971"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1795,7 +1810,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1867,28 +1882,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,11 +1918,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="67761763"/>
-        <c:axId val="84525947"/>
+        <c:axId val="84756778"/>
+        <c:axId val="94438991"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67761763"/>
+        <c:axId val="84756778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,14 +1978,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84525947"/>
+        <c:crossAx val="94438991"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84525947"/>
+        <c:axId val="94438991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67761763"/>
+        <c:crossAx val="84756778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2062,7 +2077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2170,11 +2185,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="2751188"/>
-        <c:axId val="2289460"/>
+        <c:axId val="40114109"/>
+        <c:axId val="28218983"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2751188"/>
+        <c:axId val="40114109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,14 +2245,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2289460"/>
+        <c:crossAx val="28218983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2289460"/>
+        <c:axId val="28218983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2317,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2751188"/>
+        <c:crossAx val="40114109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2340,9 +2355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4187520</xdr:colOff>
+      <xdr:colOff>4187160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2351,7 +2366,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11400480" y="443160"/>
-        <a:ext cx="5760720" cy="2864520"/>
+        <a:ext cx="5760360" cy="2864160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2375,9 +2390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1772280</xdr:colOff>
+      <xdr:colOff>1771920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2386,7 +2401,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2410,9 +2425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>517680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2421,7 +2436,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448920"/>
-        <a:ext cx="3752280" cy="1854000"/>
+        <a:ext cx="3751920" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2445,9 +2460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2456,7 +2471,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2480,9 +2495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2491,7 +2506,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2512,7 +2527,7 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -5527,7 +5542,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -6693,8 +6708,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6801,7 +6816,7 @@
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -6815,12 +6830,10 @@
         <v>118</v>
       </c>
       <c r="B8" s="32" t="n">
-        <f aca="false">B7-C8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="32" t="n">
-        <f aca="false">COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -6833,12 +6846,10 @@
         <v>119</v>
       </c>
       <c r="B9" s="32" t="n">
-        <f aca="false">B8-C9</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="32" t="n">
-        <f aca="false">COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -6851,12 +6862,10 @@
         <v>120</v>
       </c>
       <c r="B10" s="32" t="n">
-        <f aca="false">B9-C10</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="32" t="n">
-        <f aca="false">COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -6869,12 +6878,10 @@
         <v>121</v>
       </c>
       <c r="B11" s="32" t="n">
-        <f aca="false">B10-C11</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" s="32" t="n">
-        <f aca="false">COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -6887,8 +6894,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="32" t="n">
-        <f aca="false">B11-C12</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6905,8 +6911,7 @@
         <v>123</v>
       </c>
       <c r="B13" s="32" t="n">
-        <f aca="false">B12-C13</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6923,8 +6928,7 @@
         <v>124</v>
       </c>
       <c r="B14" s="32" t="n">
-        <f aca="false">B13-C14</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6966,11 +6970,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="46" t="s">
         <v>158</v>
@@ -6978,93 +6984,129 @@
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="43" t="s">
+        <v>158</v>
+      </c>
       <c r="E18" s="44"/>
       <c r="F18" s="45"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>158</v>
+      </c>
       <c r="E19" s="44"/>
       <c r="F19" s="45"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="43" t="s">
+        <v>158</v>
+      </c>
       <c r="E20" s="44"/>
       <c r="F20" s="45"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="42" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>158</v>
+      </c>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="42" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="E22" s="44"/>
       <c r="F22" s="45"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>160</v>
+      </c>
       <c r="E23" s="44"/>
       <c r="F23" s="45"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="43" t="s">
+        <v>160</v>
+      </c>
       <c r="E24" s="44"/>
       <c r="F24" s="45"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="42" t="s">
+        <v>99</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="43"/>
+      <c r="D25" s="43" t="s">
+        <v>161</v>
+      </c>
       <c r="E25" s="44"/>
       <c r="F25" s="45"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="42" t="s">
+        <v>107</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="43" t="s">
+        <v>162</v>
+      </c>
       <c r="E26" s="44"/>
       <c r="F26" s="45"/>
     </row>
@@ -8133,7 +8175,7 @@
       <c r="B17" s="42"/>
       <c r="C17" s="1"/>
       <c r="D17" s="46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="45" t="s">
